--- a/info.xlsx
+++ b/info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0DA05-D991-4ED4-9CFE-DF981FA91B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5920BA-8E8C-4152-B734-10EC5372BA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>НАЧАЛЬНАЯ ИЛИ НЕПОЛНАЯ СРЕДНЯЯ ШКОЛА</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>ОБЩЕСТВЕННЫЕ ОРГАНИЗАЦИИ, СОВЕТ ВЕТЕРАНОВ И ПР.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">child </t>
+  </si>
+  <si>
+    <t>есть дети</t>
+  </si>
+  <si>
+    <t>нет детей</t>
   </si>
 </sst>
 </file>
@@ -585,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E63"/>
+  <dimension ref="B1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,6 +1082,27 @@
         <v>66</v>
       </c>
     </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5920BA-8E8C-4152-B734-10EC5372BA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877D0D30-7BF1-4BCE-AB0D-91083FAC4C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>НАЧАЛЬНАЯ ИЛИ НЕПОЛНАЯ СРЕДНЯЯ ШКОЛА</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>нет детей</t>
+  </si>
+  <si>
+    <t>ВЫКИНУТЫЕ ВЫБРОСЫ И СЛИШКОМ МАЛНЬКИЕ ЗП</t>
   </si>
 </sst>
 </file>
@@ -270,12 +273,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -299,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -314,6 +323,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E67"/>
+  <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,12 +1094,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>0</v>
       </c>
@@ -1095,13 +1107,2439 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C70" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>52</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6">
+        <v>40</v>
+      </c>
+      <c r="E72" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F72" s="7">
+        <f t="shared" ref="F72:F77" si="0">LOG(E72)</f>
+        <v>5</v>
+      </c>
+      <c r="G72" s="6">
+        <v>34</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72" s="6">
+        <v>1</v>
+      </c>
+      <c r="J72" s="6">
+        <f t="shared" ref="J72:J77" si="1">IF(I72&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K72" s="6">
+        <v>21</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>1</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>45</v>
+      </c>
+      <c r="B73" s="6">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
+        <v>40</v>
+      </c>
+      <c r="E73" s="7">
+        <v>80000</v>
+      </c>
+      <c r="F73" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9030899869919438</v>
+      </c>
+      <c r="G73" s="6">
+        <v>25</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73" s="6">
+        <v>2</v>
+      </c>
+      <c r="J73" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K73" s="6">
+        <v>7</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>66</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>40</v>
+      </c>
+      <c r="E74" s="7">
+        <v>500</v>
+      </c>
+      <c r="F74" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="G74" s="6">
+        <v>41</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>17</v>
+      </c>
+      <c r="B75" s="6">
+        <v>0</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>40</v>
+      </c>
+      <c r="E75" s="7">
+        <v>500</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A76" s="6">
+        <v>65</v>
+      </c>
+      <c r="B76" s="6">
+        <v>1</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6">
+        <v>40</v>
+      </c>
+      <c r="E76" s="7">
+        <v>700</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8450980400142569</v>
+      </c>
+      <c r="G76" s="6">
+        <v>42</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76" s="6">
+        <v>2</v>
+      </c>
+      <c r="J76" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K76" s="6">
+        <v>13</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
+        <v>21</v>
+      </c>
+      <c r="B77" s="6">
+        <v>0</v>
+      </c>
+      <c r="C77" s="6">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77" s="7">
+        <v>760</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8808135922807914</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="6">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>43</v>
+      </c>
+      <c r="B79" s="6">
+        <v>0</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6">
+        <v>30</v>
+      </c>
+      <c r="E79" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F79" s="7">
+        <f>LOG(E79)</f>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="G79" s="6">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <f>IF(I79&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <v>17</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A80" s="6">
+        <v>52</v>
+      </c>
+      <c r="B80" s="6">
+        <v>1</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>40</v>
+      </c>
+      <c r="E80" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F80" s="7">
+        <f>LOG(E80)</f>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="G80" s="6">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80" s="6">
+        <v>3</v>
+      </c>
+      <c r="J80" s="6">
+        <f>IF(I80&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K80" s="6">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>29</v>
+      </c>
+      <c r="B81" s="6">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>40</v>
+      </c>
+      <c r="E81" s="7">
+        <v>4900</v>
+      </c>
+      <c r="F81" s="7">
+        <f>LOG(E81)</f>
+        <v>3.6901960800285138</v>
+      </c>
+      <c r="G81" s="6">
+        <v>10</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="I81" s="6">
+        <v>2</v>
+      </c>
+      <c r="J81" s="6">
+        <f>IF(I81&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K81" s="6">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A82" s="6">
+        <v>67</v>
+      </c>
+      <c r="B82" s="6">
+        <v>1</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6">
+        <v>48</v>
+      </c>
+      <c r="E82" s="7">
+        <v>4253</v>
+      </c>
+      <c r="F82" s="7">
+        <f>LOG(E82)</f>
+        <v>3.6286953827140231</v>
+      </c>
+      <c r="G82" s="6">
+        <v>48</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82" s="6">
+        <v>1</v>
+      </c>
+      <c r="J82" s="6">
+        <f>IF(I82&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K82" s="6">
+        <v>17</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
+        <v>43</v>
+      </c>
+      <c r="B83" s="6">
+        <v>1</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6">
+        <v>15</v>
+      </c>
+      <c r="E83" s="7">
+        <v>4200</v>
+      </c>
+      <c r="F83" s="7">
+        <f>LOG(E83)</f>
+        <v>3.6232492903979003</v>
+      </c>
+      <c r="G83" s="6">
+        <v>20</v>
+      </c>
+      <c r="H83">
+        <v>11</v>
+      </c>
+      <c r="I83" s="6">
+        <v>2</v>
+      </c>
+      <c r="J83" s="6">
+        <f>IF(I83&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K83" s="6">
+        <v>32</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A84" s="6">
+        <v>61</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6">
+        <v>39</v>
+      </c>
+      <c r="E84" s="7">
+        <v>3600</v>
+      </c>
+      <c r="F84" s="7">
+        <f>LOG(E84)</f>
+        <v>3.5563025007672873</v>
+      </c>
+      <c r="G84" s="6">
+        <v>43</v>
+      </c>
+      <c r="H84">
+        <v>15</v>
+      </c>
+      <c r="I84" s="6">
+        <v>1</v>
+      </c>
+      <c r="J84" s="6">
+        <f>IF(I84&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K84" s="6">
+        <v>9</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>78</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6">
+        <v>36</v>
+      </c>
+      <c r="E85" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F85" s="7">
+        <f>LOG(E85)</f>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="G85" s="6">
+        <v>60</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85" s="6">
+        <v>1</v>
+      </c>
+      <c r="J85" s="6">
+        <f>IF(I85&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K85" s="6">
+        <v>14</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
+        <v>22</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>40</v>
+      </c>
+      <c r="E86" s="7">
+        <v>2300</v>
+      </c>
+      <c r="F86" s="7">
+        <f>LOG(E86)</f>
+        <v>3.3617278360175931</v>
+      </c>
+      <c r="G86" s="6">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <f>IF(I86&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>74</v>
+      </c>
+      <c r="B87" s="6">
+        <v>0</v>
+      </c>
+      <c r="C87" s="6">
+        <v>1</v>
+      </c>
+      <c r="D87" s="6">
+        <v>40</v>
+      </c>
+      <c r="E87" s="7">
+        <v>2150</v>
+      </c>
+      <c r="F87" s="7">
+        <f>LOG(E87)</f>
+        <v>3.3324384599156054</v>
+      </c>
+      <c r="G87" s="6">
+        <v>52</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="I87" s="6">
+        <v>1</v>
+      </c>
+      <c r="J87" s="6">
+        <f>IF(I87&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K87" s="6">
+        <v>7</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0</v>
+      </c>
+      <c r="C88" s="6">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>40</v>
+      </c>
+      <c r="E88" s="7">
+        <v>2000.0000000000036</v>
+      </c>
+      <c r="F88" s="7">
+        <f>LOG(E88)</f>
+        <v>3.3010299956639821</v>
+      </c>
+      <c r="G88" s="6">
+        <v>36</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <f>IF(I88&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
+        <v>76</v>
+      </c>
+      <c r="B89" s="6">
+        <v>0</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>40</v>
+      </c>
+      <c r="E89" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F89" s="7">
+        <f>LOG(E89)</f>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="G89" s="6">
+        <v>48</v>
+      </c>
+      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6">
+        <f>IF(I89&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A90" s="6">
+        <v>69</v>
+      </c>
+      <c r="B90" s="6">
+        <v>0</v>
+      </c>
+      <c r="C90" s="6">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>40</v>
+      </c>
+      <c r="E90" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F90" s="7">
+        <f>LOG(E90)</f>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="G90" s="6">
+        <v>32</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90" s="6">
+        <v>1</v>
+      </c>
+      <c r="J90" s="6">
+        <f>IF(I90&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
+        <v>40</v>
+      </c>
+      <c r="B91" s="6">
+        <v>1</v>
+      </c>
+      <c r="C91" s="6">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="E91" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F91" s="7">
+        <f>LOG(E91)</f>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="G91" s="6">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91" s="6">
+        <v>2</v>
+      </c>
+      <c r="J91" s="6">
+        <f>IF(I91&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A92" s="6">
+        <v>38</v>
+      </c>
+      <c r="B92" s="6">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6">
+        <v>48</v>
+      </c>
+      <c r="E92" s="7">
+        <v>1850</v>
+      </c>
+      <c r="F92" s="7">
+        <f>LOG(E92)</f>
+        <v>3.2671717284030137</v>
+      </c>
+      <c r="G92" s="6">
+        <v>10</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <f>IF(I92&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <v>13</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A93" s="6">
+        <v>19</v>
+      </c>
+      <c r="B93" s="6">
+        <v>0</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="E93" s="7">
+        <v>1480</v>
+      </c>
+      <c r="F93" s="7">
+        <f>LOG(E93)</f>
+        <v>3.1702617153949575</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
+        <f>IF(I93&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A94" s="6">
+        <v>62</v>
+      </c>
+      <c r="B94" s="6">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1</v>
+      </c>
+      <c r="D94" s="6">
+        <v>20</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1300</v>
+      </c>
+      <c r="F94" s="7">
+        <f>LOG(E94)</f>
+        <v>3.1139433523068369</v>
+      </c>
+      <c r="G94" s="6">
+        <v>39</v>
+      </c>
+      <c r="H94">
+        <v>10</v>
+      </c>
+      <c r="I94" s="6">
+        <v>1</v>
+      </c>
+      <c r="J94" s="6">
+        <f>IF(I94&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K94" s="6">
+        <v>26</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>1</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877D0D30-7BF1-4BCE-AB0D-91083FAC4C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AC65A4-698D-409D-94B4-2ED72A2F108D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,16 +606,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG107"/>
+  <dimension ref="A1:AG108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="3" max="3" width="66.6328125" customWidth="1"/>
     <col min="4" max="4" width="39.26953125" customWidth="1"/>
     <col min="5" max="5" width="28.54296875" customWidth="1"/>
   </cols>
@@ -1765,7 +1765,7 @@
         <v>5000</v>
       </c>
       <c r="F79" s="7">
-        <f>LOG(E79)</f>
+        <f t="shared" ref="F79:F94" si="2">LOG(E79)</f>
         <v>3.6989700043360187</v>
       </c>
       <c r="G79" s="6">
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <f>IF(I79&gt;0, 1,0)</f>
+        <f t="shared" ref="J79:J94" si="3">IF(I79&gt;0, 1,0)</f>
         <v>0</v>
       </c>
       <c r="K79" s="6">
@@ -1868,7 +1868,7 @@
         <v>5000</v>
       </c>
       <c r="F80" s="7">
-        <f>LOG(E80)</f>
+        <f t="shared" si="2"/>
         <v>3.6989700043360187</v>
       </c>
       <c r="G80" s="6">
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="J80" s="6">
-        <f>IF(I80&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K80" s="6">
@@ -1971,7 +1971,7 @@
         <v>4900</v>
       </c>
       <c r="F81" s="7">
-        <f>LOG(E81)</f>
+        <f t="shared" si="2"/>
         <v>3.6901960800285138</v>
       </c>
       <c r="G81" s="6">
@@ -1984,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="J81" s="6">
-        <f>IF(I81&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K81" s="6">
@@ -2074,7 +2074,7 @@
         <v>4253</v>
       </c>
       <c r="F82" s="7">
-        <f>LOG(E82)</f>
+        <f t="shared" si="2"/>
         <v>3.6286953827140231</v>
       </c>
       <c r="G82" s="6">
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="6">
-        <f>IF(I82&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K82" s="6">
@@ -2177,7 +2177,7 @@
         <v>4200</v>
       </c>
       <c r="F83" s="7">
-        <f>LOG(E83)</f>
+        <f t="shared" si="2"/>
         <v>3.6232492903979003</v>
       </c>
       <c r="G83" s="6">
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="J83" s="6">
-        <f>IF(I83&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K83" s="6">
@@ -2280,7 +2280,7 @@
         <v>3600</v>
       </c>
       <c r="F84" s="7">
-        <f>LOG(E84)</f>
+        <f t="shared" si="2"/>
         <v>3.5563025007672873</v>
       </c>
       <c r="G84" s="6">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="6">
-        <f>IF(I84&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K84" s="6">
@@ -2383,7 +2383,7 @@
         <v>3000</v>
       </c>
       <c r="F85" s="7">
-        <f>LOG(E85)</f>
+        <f t="shared" si="2"/>
         <v>3.4771212547196626</v>
       </c>
       <c r="G85" s="6">
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="6">
-        <f>IF(I85&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K85" s="6">
@@ -2486,7 +2486,7 @@
         <v>2300</v>
       </c>
       <c r="F86" s="7">
-        <f>LOG(E86)</f>
+        <f t="shared" si="2"/>
         <v>3.3617278360175931</v>
       </c>
       <c r="G86" s="6">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <f>IF(I86&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K86" s="6">
@@ -2589,7 +2589,7 @@
         <v>2150</v>
       </c>
       <c r="F87" s="7">
-        <f>LOG(E87)</f>
+        <f t="shared" si="2"/>
         <v>3.3324384599156054</v>
       </c>
       <c r="G87" s="6">
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="6">
-        <f>IF(I87&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K87" s="6">
@@ -2692,7 +2692,7 @@
         <v>2000.0000000000036</v>
       </c>
       <c r="F88" s="7">
-        <f>LOG(E88)</f>
+        <f t="shared" si="2"/>
         <v>3.3010299956639821</v>
       </c>
       <c r="G88" s="6">
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="6">
-        <f>IF(I88&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K88" s="6">
@@ -2795,7 +2795,7 @@
         <v>2000</v>
       </c>
       <c r="F89" s="7">
-        <f>LOG(E89)</f>
+        <f t="shared" si="2"/>
         <v>3.3010299956639813</v>
       </c>
       <c r="G89" s="6">
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="6">
-        <f>IF(I89&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K89" s="6">
@@ -2898,7 +2898,7 @@
         <v>2000</v>
       </c>
       <c r="F90" s="7">
-        <f>LOG(E90)</f>
+        <f t="shared" si="2"/>
         <v>3.3010299956639813</v>
       </c>
       <c r="G90" s="6">
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="6">
-        <f>IF(I90&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K90" s="6">
@@ -3001,7 +3001,7 @@
         <v>2000</v>
       </c>
       <c r="F91" s="7">
-        <f>LOG(E91)</f>
+        <f t="shared" si="2"/>
         <v>3.3010299956639813</v>
       </c>
       <c r="G91" s="6">
@@ -3014,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="J91" s="6">
-        <f>IF(I91&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K91" s="6">
@@ -3104,7 +3104,7 @@
         <v>1850</v>
       </c>
       <c r="F92" s="7">
-        <f>LOG(E92)</f>
+        <f t="shared" si="2"/>
         <v>3.2671717284030137</v>
       </c>
       <c r="G92" s="6">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="6">
-        <f>IF(I92&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K92" s="6">
@@ -3207,7 +3207,7 @@
         <v>1480</v>
       </c>
       <c r="F93" s="7">
-        <f>LOG(E93)</f>
+        <f t="shared" si="2"/>
         <v>3.1702617153949575</v>
       </c>
       <c r="G93" s="6">
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="6">
-        <f>IF(I93&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K93" s="6">
@@ -3310,7 +3310,7 @@
         <v>1300</v>
       </c>
       <c r="F94" s="7">
-        <f>LOG(E94)</f>
+        <f t="shared" si="2"/>
         <v>3.1139433523068369</v>
       </c>
       <c r="G94" s="6">
@@ -3323,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="6">
-        <f>IF(I94&gt;0, 1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K94" s="6">
@@ -3409,137 +3409,485 @@
       <c r="K95" s="6"/>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
+      <c r="A96" s="6">
+        <v>20</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0</v>
+      </c>
+      <c r="C96" s="6">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>40</v>
+      </c>
+      <c r="E96" s="7">
+        <v>9300</v>
+      </c>
+      <c r="F96" s="7">
+        <f>LOG(E96)</f>
+        <v>3.9684829485539352</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
+        <f>IF(I96&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
+      <c r="A97" s="6">
+        <v>55</v>
+      </c>
+      <c r="B97" s="6">
+        <v>1</v>
+      </c>
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6">
+        <v>30</v>
+      </c>
+      <c r="E97" s="7">
+        <v>9000</v>
+      </c>
+      <c r="F97" s="7">
+        <f>LOG(E97)</f>
+        <v>3.9542425094393248</v>
+      </c>
+      <c r="G97" s="6">
+        <v>36</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97" s="6">
+        <v>2</v>
+      </c>
+      <c r="J97" s="6">
+        <f>IF(I97&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K97" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
+      <c r="A98" s="6">
+        <v>61</v>
+      </c>
+      <c r="B98" s="6">
+        <v>0</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0</v>
+      </c>
+      <c r="D98" s="6">
+        <v>39</v>
+      </c>
+      <c r="E98" s="7">
+        <v>8800</v>
+      </c>
+      <c r="F98" s="7">
+        <f>LOG(E98)</f>
+        <v>3.9444826721501687</v>
+      </c>
+      <c r="G98" s="6">
+        <v>21</v>
+      </c>
+      <c r="H98">
+        <v>10</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1</v>
+      </c>
+      <c r="J98" s="6">
+        <f>IF(I98&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K98" s="6">
+        <v>17</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
+      <c r="A99" s="6">
+        <v>58</v>
+      </c>
+      <c r="B99" s="6">
+        <v>0</v>
+      </c>
+      <c r="C99" s="6">
+        <v>1</v>
+      </c>
+      <c r="D99" s="6">
+        <v>40</v>
+      </c>
+      <c r="E99" s="7">
+        <v>7700</v>
+      </c>
+      <c r="F99" s="7">
+        <f>LOG(E99)</f>
+        <v>3.8864907251724818</v>
+      </c>
+      <c r="G99" s="6">
+        <v>41</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99" s="6">
+        <v>2</v>
+      </c>
+      <c r="J99" s="6">
+        <f>IF(I99&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K99" s="6">
+        <v>17</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
+      <c r="A100" s="6">
+        <v>17</v>
+      </c>
+      <c r="B100" s="6">
+        <v>0</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>40</v>
+      </c>
+      <c r="E100" s="7">
+        <v>7500</v>
+      </c>
+      <c r="F100" s="7">
+        <f>LOG(E100)</f>
+        <v>3.8750612633917001</v>
+      </c>
+      <c r="G100" s="6">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <f>IF(I100&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
+      <c r="A101" s="6">
+        <v>63</v>
+      </c>
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6">
+        <v>39</v>
+      </c>
+      <c r="E101" s="7">
+        <v>7400</v>
+      </c>
+      <c r="F101" s="7">
+        <f>LOG(E101)</f>
+        <v>3.8692317197309762</v>
+      </c>
+      <c r="G101" s="6">
+        <v>18</v>
+      </c>
+      <c r="H101">
+        <v>10</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+      <c r="J101" s="6">
+        <f>IF(I101&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K101" s="6">
+        <v>17</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
+      <c r="A102" s="6">
+        <v>54</v>
+      </c>
+      <c r="B102" s="6">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6">
+        <v>16</v>
+      </c>
+      <c r="E102" s="7">
+        <v>7000</v>
+      </c>
+      <c r="F102" s="7">
+        <f>LOG(E102)</f>
+        <v>3.8450980400142569</v>
+      </c>
+      <c r="G102" s="6">
+        <v>25</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102" s="6">
+        <v>1</v>
+      </c>
+      <c r="J102" s="6">
+        <f>IF(I102&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K102" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
+      <c r="A103" s="6">
+        <v>23</v>
+      </c>
+      <c r="B103" s="6">
+        <v>1</v>
+      </c>
+      <c r="C103" s="6">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>40</v>
+      </c>
+      <c r="E103" s="7">
+        <v>7000</v>
+      </c>
+      <c r="F103" s="7">
+        <f>LOG(E103)</f>
+        <v>3.8450980400142569</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103" s="6">
+        <v>1</v>
+      </c>
+      <c r="J103" s="6">
+        <f>IF(I103&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K103" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
+      <c r="A104" s="6">
+        <v>20</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0</v>
+      </c>
+      <c r="C104" s="6">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>40</v>
+      </c>
+      <c r="E104" s="7">
+        <v>6400</v>
+      </c>
+      <c r="F104" s="7">
+        <f>LOG(E104)</f>
+        <v>3.8061799739838871</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6">
+        <f>IF(I104&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
+      <c r="A105" s="6">
+        <v>56</v>
+      </c>
+      <c r="B105" s="6">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1</v>
+      </c>
+      <c r="D105" s="6">
+        <v>40</v>
+      </c>
+      <c r="E105" s="7">
+        <v>6278</v>
+      </c>
+      <c r="F105" s="7">
+        <f>LOG(E105)</f>
+        <v>3.7978213113640238</v>
+      </c>
+      <c r="G105" s="6">
+        <v>37</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105" s="6">
+        <v>2</v>
+      </c>
+      <c r="J105" s="6">
+        <f>IF(I105&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K105" s="6">
+        <v>17</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
+      <c r="A106" s="6">
+        <v>44</v>
+      </c>
+      <c r="B106" s="6">
+        <v>0</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0</v>
+      </c>
+      <c r="D106" s="6">
+        <v>40</v>
+      </c>
+      <c r="E106" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F106" s="7">
+        <f>LOG(E106)</f>
+        <v>3.7781512503836434</v>
+      </c>
+      <c r="G106" s="6">
+        <v>10</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106" s="6">
+        <v>2</v>
+      </c>
+      <c r="J106" s="6">
+        <f>IF(I106&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K106" s="6">
+        <v>13</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
+      <c r="A107" s="6">
+        <v>24</v>
+      </c>
+      <c r="B107" s="6">
+        <v>1</v>
+      </c>
+      <c r="C107" s="6">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>40</v>
+      </c>
+      <c r="E107" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F107" s="7">
+        <f>LOG(E107)</f>
+        <v>3.7781512503836434</v>
+      </c>
+      <c r="G107" s="6">
+        <v>6</v>
+      </c>
+      <c r="H107">
+        <v>12</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
+        <f>IF(I107&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" s="6">
+        <v>23</v>
+      </c>
+      <c r="B108" s="6">
+        <v>0</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>40</v>
+      </c>
+      <c r="E108" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F108" s="7">
+        <f>LOG(E108)</f>
+        <v>3.7781512503836434</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>6</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <f>IF(I108&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AC65A4-698D-409D-94B4-2ED72A2F108D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6FA36A-9B6C-4D80-A663-5A9D17709F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG108"/>
+  <dimension ref="A1:AG109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,12 +620,15 @@
     <col min="5" max="5" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -633,7 +636,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -641,7 +647,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -649,7 +658,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -657,7 +669,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -665,7 +680,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -673,7 +691,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" s="3">
         <v>9</v>
       </c>
@@ -681,7 +702,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" s="3">
         <v>10</v>
       </c>
@@ -689,7 +713,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" s="3">
         <v>11</v>
       </c>
@@ -697,7 +724,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" s="3">
         <v>12</v>
       </c>
@@ -705,7 +735,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" s="3">
         <v>13</v>
       </c>
@@ -713,7 +746,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13" s="3">
         <v>14</v>
       </c>
@@ -721,7 +757,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" s="3">
         <v>15</v>
       </c>
@@ -729,7 +768,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15" s="3">
         <v>16</v>
       </c>
@@ -737,630 +779,531 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="3">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
+        <v>31</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" s="3">
         <v>32</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C70" s="8" t="s">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C71" s="8" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A72" s="6">
-        <v>52</v>
-      </c>
-      <c r="B72" s="6">
-        <v>0</v>
-      </c>
-      <c r="C72" s="6">
-        <v>1</v>
-      </c>
-      <c r="D72" s="6">
-        <v>40</v>
-      </c>
-      <c r="E72" s="7">
-        <v>100000</v>
-      </c>
-      <c r="F72" s="7">
-        <f t="shared" ref="F72:F77" si="0">LOG(E72)</f>
-        <v>5</v>
-      </c>
-      <c r="G72" s="6">
-        <v>34</v>
-      </c>
-      <c r="H72">
-        <v>10</v>
-      </c>
-      <c r="I72" s="6">
-        <v>1</v>
-      </c>
-      <c r="J72" s="6">
-        <f t="shared" ref="J72:J77" si="1">IF(I72&gt;0, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K72" s="6">
-        <v>21</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <v>1</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <v>0</v>
-      </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
-      <c r="AG72">
-        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B73" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="6">
         <v>40</v>
       </c>
       <c r="E73" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F73" s="7">
+        <f t="shared" ref="F73:F78" si="0">LOG(E73)</f>
+        <v>5</v>
+      </c>
+      <c r="G73" s="6">
+        <v>34</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1</v>
+      </c>
+      <c r="J73" s="6">
+        <f t="shared" ref="J73:J78" si="1">IF(I73&gt;0, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K73" s="6">
+        <v>21</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>45</v>
+      </c>
+      <c r="B74" s="6">
+        <v>1</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6">
+        <v>40</v>
+      </c>
+      <c r="E74" s="7">
         <v>80000</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <f t="shared" si="0"/>
         <v>4.9030899869919438</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G74" s="6">
         <v>25</v>
       </c>
-      <c r="H73">
+      <c r="H74">
         <v>10</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I74" s="6">
         <v>2</v>
-      </c>
-      <c r="J73" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K73" s="6">
-        <v>7</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>1</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>0</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73">
-        <v>0</v>
-      </c>
-      <c r="AG73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
-        <v>66</v>
-      </c>
-      <c r="B74" s="6">
-        <v>0</v>
-      </c>
-      <c r="C74" s="6">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>40</v>
-      </c>
-      <c r="E74" s="7">
-        <v>500</v>
-      </c>
-      <c r="F74" s="7">
-        <f t="shared" si="0"/>
-        <v>2.6989700043360187</v>
-      </c>
-      <c r="G74" s="6">
-        <v>41</v>
-      </c>
-      <c r="H74">
-        <v>4</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
       </c>
       <c r="J74" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -1381,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -1431,13 +1374,13 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B75" s="6">
         <v>0</v>
       </c>
       <c r="C75" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>40</v>
@@ -1450,10 +1393,10 @@
         <v>2.6989700043360187</v>
       </c>
       <c r="G75" s="6">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -1534,39 +1477,39 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B76" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="6">
-        <v>1</v>
-      </c>
-      <c r="D76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76">
         <v>40</v>
       </c>
       <c r="E76" s="7">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F76" s="7">
         <f t="shared" si="0"/>
-        <v>2.8450980400142569</v>
+        <v>2.6989700043360187</v>
       </c>
       <c r="G76" s="6">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>6</v>
-      </c>
-      <c r="I76" s="6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
       </c>
       <c r="J76" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -1602,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X76">
         <v>0</v>
@@ -1637,39 +1580,39 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B77" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6">
         <v>40</v>
       </c>
       <c r="E77" s="7">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="F77" s="7">
         <f t="shared" si="0"/>
-        <v>2.8808135922807914</v>
+        <v>2.8450980400142569</v>
       </c>
       <c r="G77" s="6">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H77">
-        <v>5</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I77" s="6">
+        <v>2</v>
       </c>
       <c r="J77" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -1705,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X77">
         <v>0</v>
@@ -1739,1070 +1682,1070 @@
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
+      <c r="A78" s="6">
+        <v>21</v>
+      </c>
+      <c r="B78" s="6">
+        <v>0</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>40</v>
+      </c>
+      <c r="E78" s="7">
+        <v>760</v>
+      </c>
+      <c r="F78" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8808135922807914</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="6">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A79" s="6">
-        <v>43</v>
-      </c>
-      <c r="B79" s="6">
-        <v>0</v>
-      </c>
-      <c r="C79" s="6">
-        <v>1</v>
-      </c>
-      <c r="D79" s="6">
-        <v>30</v>
-      </c>
-      <c r="E79" s="7">
-        <v>5000</v>
-      </c>
-      <c r="F79" s="7">
-        <f t="shared" ref="F79:F94" si="2">LOG(E79)</f>
-        <v>3.6989700043360187</v>
-      </c>
-      <c r="G79" s="6">
-        <v>10</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
-        <f t="shared" ref="J79:J94" si="3">IF(I79&gt;0, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K79" s="6">
-        <v>17</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <v>1</v>
-      </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <v>0</v>
-      </c>
-      <c r="AD79">
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <v>0</v>
-      </c>
-      <c r="AF79">
-        <v>0</v>
-      </c>
-      <c r="AG79">
-        <v>0</v>
-      </c>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B80" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" s="6">
         <v>1</v>
       </c>
-      <c r="D80">
-        <v>40</v>
+      <c r="D80" s="6">
+        <v>30</v>
       </c>
       <c r="E80" s="7">
         <v>5000</v>
       </c>
       <c r="F80" s="7">
+        <f t="shared" ref="F80:F95" si="2">LOG(E80)</f>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="G80" s="6">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
+        <f t="shared" ref="J80:J95" si="3">IF(I80&gt;0, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="6">
+        <v>17</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>52</v>
+      </c>
+      <c r="B81" s="6">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>40</v>
+      </c>
+      <c r="E81" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F81" s="7">
         <f t="shared" si="2"/>
         <v>3.6989700043360187</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G81" s="6">
         <v>2</v>
       </c>
-      <c r="H80">
+      <c r="H81">
         <v>2</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I81" s="6">
         <v>3</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J81" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K80" s="6">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-      <c r="AD80">
-        <v>0</v>
-      </c>
-      <c r="AE80">
-        <v>0</v>
-      </c>
-      <c r="AF80">
-        <v>0</v>
-      </c>
-      <c r="AG80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A81" s="6">
+      <c r="K81" s="6">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A82" s="6">
         <v>29</v>
       </c>
-      <c r="B81" s="6">
-        <v>1</v>
-      </c>
-      <c r="C81" s="6">
-        <v>1</v>
-      </c>
-      <c r="D81">
+      <c r="B82" s="6">
+        <v>1</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82">
         <v>40</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <v>4900</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="7">
         <f t="shared" si="2"/>
         <v>3.6901960800285138</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <v>10</v>
       </c>
-      <c r="H81">
+      <c r="H82">
         <v>10</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I82" s="6">
         <v>2</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J82" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K81" s="6">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81">
-        <v>0</v>
-      </c>
-      <c r="AE81">
-        <v>0</v>
-      </c>
-      <c r="AF81">
-        <v>0</v>
-      </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A82" s="6">
+      <c r="K82" s="6">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
         <v>67</v>
       </c>
-      <c r="B82" s="6">
-        <v>1</v>
-      </c>
-      <c r="C82" s="6">
-        <v>1</v>
-      </c>
-      <c r="D82" s="6">
+      <c r="B83" s="6">
+        <v>1</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6">
         <v>48</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="7">
         <v>4253</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="7">
         <f t="shared" si="2"/>
         <v>3.6286953827140231</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G83" s="6">
         <v>48</v>
       </c>
-      <c r="H82">
+      <c r="H83">
         <v>5</v>
       </c>
-      <c r="I82" s="6">
-        <v>1</v>
-      </c>
-      <c r="J82" s="6">
+      <c r="I83" s="6">
+        <v>1</v>
+      </c>
+      <c r="J83" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K83" s="6">
         <v>17</v>
       </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>1</v>
-      </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-      <c r="AD82">
-        <v>0</v>
-      </c>
-      <c r="AE82">
-        <v>0</v>
-      </c>
-      <c r="AF82">
-        <v>0</v>
-      </c>
-      <c r="AG82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A83" s="6">
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A84" s="6">
         <v>43</v>
       </c>
-      <c r="B83" s="6">
-        <v>1</v>
-      </c>
-      <c r="C83" s="6">
-        <v>1</v>
-      </c>
-      <c r="D83" s="6">
+      <c r="B84" s="6">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6">
         <v>15</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <v>4200</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="7">
         <f t="shared" si="2"/>
         <v>3.6232492903979003</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G84" s="6">
         <v>20</v>
       </c>
-      <c r="H83">
+      <c r="H84">
         <v>11</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I84" s="6">
         <v>2</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J84" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K84" s="6">
         <v>32</v>
       </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
-        <v>0</v>
-      </c>
-      <c r="AE83">
-        <v>0</v>
-      </c>
-      <c r="AF83">
-        <v>0</v>
-      </c>
-      <c r="AG83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A84" s="6">
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
         <v>61</v>
       </c>
-      <c r="B84" s="6">
-        <v>0</v>
-      </c>
-      <c r="C84" s="6">
-        <v>1</v>
-      </c>
-      <c r="D84" s="6">
+      <c r="B85" s="6">
+        <v>0</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6">
         <v>39</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="7">
         <v>3600</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="7">
         <f t="shared" si="2"/>
         <v>3.5563025007672873</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6">
         <v>43</v>
       </c>
-      <c r="H84">
+      <c r="H85">
         <v>15</v>
       </c>
-      <c r="I84" s="6">
-        <v>1</v>
-      </c>
-      <c r="J84" s="6">
+      <c r="I85" s="6">
+        <v>1</v>
+      </c>
+      <c r="J85" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K85" s="6">
         <v>9</v>
       </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>1</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84">
-        <v>0</v>
-      </c>
-      <c r="AE84">
-        <v>0</v>
-      </c>
-      <c r="AF84">
-        <v>0</v>
-      </c>
-      <c r="AG84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A85" s="6">
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
         <v>78</v>
       </c>
-      <c r="B85" s="6">
-        <v>0</v>
-      </c>
-      <c r="C85" s="6">
-        <v>1</v>
-      </c>
-      <c r="D85" s="6">
+      <c r="B86" s="6">
+        <v>0</v>
+      </c>
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="6">
         <v>36</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <v>3000</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="7">
         <f t="shared" si="2"/>
         <v>3.4771212547196626</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G86" s="6">
         <v>60</v>
       </c>
-      <c r="H85">
+      <c r="H86">
         <v>3</v>
       </c>
-      <c r="I85" s="6">
-        <v>1</v>
-      </c>
-      <c r="J85" s="6">
+      <c r="I86" s="6">
+        <v>1</v>
+      </c>
+      <c r="J86" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K86" s="6">
         <v>14</v>
       </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>1</v>
-      </c>
-      <c r="Y85">
-        <v>0</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>0</v>
-      </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85">
-        <v>0</v>
-      </c>
-      <c r="AE85">
-        <v>0</v>
-      </c>
-      <c r="AF85">
-        <v>0</v>
-      </c>
-      <c r="AG85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A86" s="6">
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>1</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
         <v>22</v>
       </c>
-      <c r="B86" s="6">
-        <v>0</v>
-      </c>
-      <c r="C86" s="6">
-        <v>0</v>
-      </c>
-      <c r="D86">
+      <c r="B87" s="6">
+        <v>0</v>
+      </c>
+      <c r="C87" s="6">
+        <v>0</v>
+      </c>
+      <c r="D87">
         <v>40</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="7">
         <v>2300</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="7">
         <f t="shared" si="2"/>
         <v>3.3617278360175931</v>
       </c>
-      <c r="G86" s="6">
-        <v>0</v>
-      </c>
-      <c r="H86">
+      <c r="G87" s="6">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>2</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K86" s="6">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>0</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
-        <v>0</v>
-      </c>
-      <c r="AE86">
-        <v>0</v>
-      </c>
-      <c r="AF86">
-        <v>0</v>
-      </c>
-      <c r="AG86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A87" s="6">
+      <c r="K87" s="6">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A88" s="6">
         <v>74</v>
       </c>
-      <c r="B87" s="6">
-        <v>0</v>
-      </c>
-      <c r="C87" s="6">
-        <v>1</v>
-      </c>
-      <c r="D87" s="6">
+      <c r="B88" s="6">
+        <v>0</v>
+      </c>
+      <c r="C88" s="6">
+        <v>1</v>
+      </c>
+      <c r="D88" s="6">
         <v>40</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E88" s="7">
         <v>2150</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F88" s="7">
         <f t="shared" si="2"/>
         <v>3.3324384599156054</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G88" s="6">
         <v>52</v>
       </c>
-      <c r="H87">
+      <c r="H88">
         <v>10</v>
       </c>
-      <c r="I87" s="6">
-        <v>1</v>
-      </c>
-      <c r="J87" s="6">
+      <c r="I88" s="6">
+        <v>1</v>
+      </c>
+      <c r="J88" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K88" s="6">
         <v>7</v>
       </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <v>0</v>
-      </c>
-      <c r="Y87">
-        <v>0</v>
-      </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
-      <c r="AA87">
-        <v>0</v>
-      </c>
-      <c r="AB87">
-        <v>0</v>
-      </c>
-      <c r="AC87">
-        <v>0</v>
-      </c>
-      <c r="AD87">
-        <v>0</v>
-      </c>
-      <c r="AE87">
-        <v>0</v>
-      </c>
-      <c r="AF87">
-        <v>0</v>
-      </c>
-      <c r="AG87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A88" s="6">
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="6">
-        <v>0</v>
-      </c>
-      <c r="C88" s="6">
-        <v>1</v>
-      </c>
-      <c r="D88">
+      <c r="B89" s="6">
+        <v>0</v>
+      </c>
+      <c r="C89" s="6">
+        <v>1</v>
+      </c>
+      <c r="D89">
         <v>40</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E89" s="7">
         <v>2000.0000000000036</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F89" s="7">
         <f t="shared" si="2"/>
         <v>3.3010299956639821</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G89" s="6">
         <v>36</v>
       </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="6">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-      <c r="X88">
-        <v>0</v>
-      </c>
-      <c r="Y88">
-        <v>0</v>
-      </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
-      <c r="AA88">
-        <v>0</v>
-      </c>
-      <c r="AB88">
-        <v>0</v>
-      </c>
-      <c r="AC88">
-        <v>0</v>
-      </c>
-      <c r="AD88">
-        <v>0</v>
-      </c>
-      <c r="AE88">
-        <v>0</v>
-      </c>
-      <c r="AF88">
-        <v>0</v>
-      </c>
-      <c r="AG88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A89" s="6">
-        <v>76</v>
-      </c>
-      <c r="B89" s="6">
-        <v>0</v>
-      </c>
-      <c r="C89" s="6">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>40</v>
-      </c>
-      <c r="E89" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F89" s="7">
-        <f t="shared" si="2"/>
-        <v>3.3010299956639813</v>
-      </c>
-      <c r="G89" s="6">
-        <v>48</v>
-      </c>
       <c r="H89">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -2883,13 +2826,13 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B90" s="6">
         <v>0</v>
       </c>
       <c r="C90" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>40</v>
@@ -2902,17 +2845,17 @@
         <v>3.3010299956639813</v>
       </c>
       <c r="G90" s="6">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H90">
-        <v>5</v>
-      </c>
-      <c r="I90" s="6">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
       </c>
       <c r="J90" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="6">
         <v>0</v>
@@ -2986,10 +2929,10 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B91" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="6">
         <v>1</v>
@@ -3005,13 +2948,13 @@
         <v>3.3010299956639813</v>
       </c>
       <c r="G91" s="6">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I91" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" s="6">
         <f t="shared" si="3"/>
@@ -3089,39 +3032,39 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B92" s="6">
         <v>1</v>
       </c>
       <c r="C92" s="6">
-        <v>0</v>
-      </c>
-      <c r="D92" s="6">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>40</v>
       </c>
       <c r="E92" s="7">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="F92" s="7">
         <f t="shared" si="2"/>
-        <v>3.2671717284030137</v>
+        <v>3.3010299956639813</v>
       </c>
       <c r="G92" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H92">
-        <v>5</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I92" s="6">
+        <v>2</v>
       </c>
       <c r="J92" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -3157,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X92">
         <v>0</v>
@@ -3192,29 +3135,29 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B93" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="6">
         <v>0</v>
       </c>
-      <c r="D93">
-        <v>40</v>
+      <c r="D93" s="6">
+        <v>48</v>
       </c>
       <c r="E93" s="7">
-        <v>1480</v>
+        <v>1850</v>
       </c>
       <c r="F93" s="7">
         <f t="shared" si="2"/>
-        <v>3.1702617153949575</v>
+        <v>3.2671717284030137</v>
       </c>
       <c r="G93" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -3224,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -3260,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93">
         <v>0</v>
@@ -3295,261 +3238,327 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B94" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="6">
-        <v>1</v>
-      </c>
-      <c r="D94" s="6">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>40</v>
       </c>
       <c r="E94" s="7">
-        <v>1300</v>
+        <v>1480</v>
       </c>
       <c r="F94" s="7">
         <f t="shared" si="2"/>
-        <v>3.1139433523068369</v>
+        <v>3.1702617153949575</v>
       </c>
       <c r="G94" s="6">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>10</v>
-      </c>
-      <c r="I94" s="6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
       </c>
       <c r="J94" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="6">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A95" s="6">
+        <v>62</v>
+      </c>
+      <c r="B95" s="6">
+        <v>1</v>
+      </c>
+      <c r="C95" s="6">
+        <v>1</v>
+      </c>
+      <c r="D95" s="6">
+        <v>20</v>
+      </c>
+      <c r="E95" s="7">
+        <v>1300</v>
+      </c>
+      <c r="F95" s="7">
+        <f t="shared" si="2"/>
+        <v>3.1139433523068369</v>
+      </c>
+      <c r="G95" s="6">
+        <v>39</v>
+      </c>
+      <c r="H95">
+        <v>10</v>
+      </c>
+      <c r="I95" s="6">
+        <v>1</v>
+      </c>
+      <c r="J95" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="6">
         <v>26</v>
       </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <v>0</v>
-      </c>
-      <c r="Y94">
-        <v>0</v>
-      </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
-      <c r="AA94">
-        <v>0</v>
-      </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
-      <c r="AC94">
-        <v>0</v>
-      </c>
-      <c r="AD94">
-        <v>1</v>
-      </c>
-      <c r="AE94">
-        <v>0</v>
-      </c>
-      <c r="AF94">
-        <v>0</v>
-      </c>
-      <c r="AG94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A96" s="6">
-        <v>20</v>
-      </c>
-      <c r="B96" s="6">
-        <v>0</v>
-      </c>
-      <c r="C96" s="6">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>40</v>
-      </c>
-      <c r="E96" s="7">
-        <v>9300</v>
-      </c>
-      <c r="F96" s="7">
-        <f>LOG(E96)</f>
-        <v>3.9684829485539352</v>
-      </c>
-      <c r="G96" s="6">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>6</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" s="6">
-        <f>IF(I96&gt;0, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="6">
-        <v>0</v>
-      </c>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B97" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" s="6">
         <v>1</v>
       </c>
-      <c r="D97" s="6">
-        <v>30</v>
+      <c r="D97">
+        <v>40</v>
       </c>
       <c r="E97" s="7">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="F97" s="7">
-        <f>LOG(E97)</f>
-        <v>3.9542425094393248</v>
+        <f t="shared" ref="F97:F109" si="4">LOG(E97)</f>
+        <v>3.9684829485539352</v>
       </c>
       <c r="G97" s="6">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>2</v>
-      </c>
-      <c r="I97" s="6">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
       </c>
       <c r="J97" s="6">
-        <f>IF(I97&gt;0, 1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="J97:J109" si="5">IF(I97&gt;0, 1,0)</f>
+        <v>0</v>
       </c>
       <c r="K97" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B98" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="6">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E98" s="7">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="F98" s="7">
-        <f>LOG(E98)</f>
-        <v>3.9444826721501687</v>
+        <f t="shared" si="4"/>
+        <v>3.9542425094393248</v>
       </c>
       <c r="G98" s="6">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I98" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" s="6">
-        <f>IF(I98&gt;0, 1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K98" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B99" s="6">
         <v>0</v>
       </c>
       <c r="C99" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E99" s="7">
-        <v>7700</v>
+        <v>8800</v>
       </c>
       <c r="F99" s="7">
-        <f>LOG(E99)</f>
-        <v>3.8864907251724818</v>
+        <f t="shared" si="4"/>
+        <v>3.9444826721501687</v>
       </c>
       <c r="G99" s="6">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H99">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I99" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" s="6">
-        <f>IF(I99&gt;0, 1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K99" s="6">
@@ -3558,118 +3567,118 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
+        <v>58</v>
+      </c>
+      <c r="B100" s="6">
+        <v>0</v>
+      </c>
+      <c r="C100" s="6">
+        <v>1</v>
+      </c>
+      <c r="D100" s="6">
+        <v>40</v>
+      </c>
+      <c r="E100" s="7">
+        <v>7700</v>
+      </c>
+      <c r="F100" s="7">
+        <f t="shared" si="4"/>
+        <v>3.8864907251724818</v>
+      </c>
+      <c r="G100" s="6">
+        <v>41</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100" s="6">
+        <v>2</v>
+      </c>
+      <c r="J100" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K100" s="6">
         <v>17</v>
-      </c>
-      <c r="B100" s="6">
-        <v>0</v>
-      </c>
-      <c r="C100" s="6">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>40</v>
-      </c>
-      <c r="E100" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F100" s="7">
-        <f>LOG(E100)</f>
-        <v>3.8750612633917001</v>
-      </c>
-      <c r="G100" s="6">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100" s="6">
-        <f>IF(I100&gt;0, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K100" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B101" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="6">
         <v>0</v>
       </c>
-      <c r="D101" s="6">
-        <v>39</v>
+      <c r="D101">
+        <v>40</v>
       </c>
       <c r="E101" s="7">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="F101" s="7">
-        <f>LOG(E101)</f>
-        <v>3.8692317197309762</v>
+        <f t="shared" si="4"/>
+        <v>3.8750612633917001</v>
       </c>
       <c r="G101" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>10</v>
-      </c>
-      <c r="I101" s="6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
       </c>
       <c r="J101" s="6">
-        <f>IF(I101&gt;0, 1,0)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K101" s="6">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B102" s="6">
         <v>1</v>
       </c>
       <c r="C102" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E102" s="7">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="F102" s="7">
-        <f>LOG(E102)</f>
-        <v>3.8450980400142569</v>
+        <f t="shared" si="4"/>
+        <v>3.8692317197309762</v>
       </c>
       <c r="G102" s="6">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I102" s="6">
         <v>1</v>
       </c>
       <c r="J102" s="6">
-        <f>IF(I102&gt;0, 1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K102" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B103" s="6">
         <v>1</v>
@@ -3677,39 +3686,39 @@
       <c r="C103" s="6">
         <v>1</v>
       </c>
-      <c r="D103">
-        <v>40</v>
+      <c r="D103" s="6">
+        <v>16</v>
       </c>
       <c r="E103" s="7">
         <v>7000</v>
       </c>
       <c r="F103" s="7">
-        <f>LOG(E103)</f>
+        <f t="shared" si="4"/>
         <v>3.8450980400142569</v>
       </c>
       <c r="G103" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I103" s="6">
         <v>1</v>
       </c>
       <c r="J103" s="6">
-        <f>IF(I103&gt;0, 1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K103" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B104" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="6">
         <v>1</v>
@@ -3718,11 +3727,11 @@
         <v>40</v>
       </c>
       <c r="E104" s="7">
-        <v>6400</v>
+        <v>7000</v>
       </c>
       <c r="F104" s="7">
-        <f>LOG(E104)</f>
-        <v>3.8061799739838871</v>
+        <f t="shared" si="4"/>
+        <v>3.8450980400142569</v>
       </c>
       <c r="G104" s="6">
         <v>1</v>
@@ -3730,12 +3739,12 @@
       <c r="H104">
         <v>2</v>
       </c>
-      <c r="I104">
-        <v>0</v>
+      <c r="I104" s="6">
+        <v>1</v>
       </c>
       <c r="J104" s="6">
-        <f>IF(I104&gt;0, 1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="K104" s="6">
         <v>0</v>
@@ -3743,124 +3752,124 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B105" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="6">
         <v>1</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105">
         <v>40</v>
       </c>
       <c r="E105" s="7">
-        <v>6278</v>
+        <v>6400</v>
       </c>
       <c r="F105" s="7">
-        <f>LOG(E105)</f>
-        <v>3.7978213113640238</v>
+        <f t="shared" si="4"/>
+        <v>3.8061799739838871</v>
       </c>
       <c r="G105" s="6">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>5</v>
-      </c>
-      <c r="I105" s="6">
         <v>2</v>
       </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
       <c r="J105" s="6">
-        <f>IF(I105&gt;0, 1,0)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K105" s="6">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B106" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="6">
         <v>40</v>
       </c>
       <c r="E106" s="7">
-        <v>6000</v>
+        <v>6278</v>
       </c>
       <c r="F106" s="7">
-        <f>LOG(E106)</f>
-        <v>3.7781512503836434</v>
+        <f t="shared" si="4"/>
+        <v>3.7978213113640238</v>
       </c>
       <c r="G106" s="6">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I106" s="6">
         <v>2</v>
       </c>
       <c r="J106" s="6">
-        <f>IF(I106&gt;0, 1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K106" s="6">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B107" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="6">
-        <v>1</v>
-      </c>
-      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6">
         <v>40</v>
       </c>
       <c r="E107" s="7">
         <v>6000</v>
       </c>
       <c r="F107" s="7">
-        <f>LOG(E107)</f>
+        <f t="shared" si="4"/>
         <v>3.7781512503836434</v>
       </c>
       <c r="G107" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H107">
-        <v>12</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I107" s="6">
+        <v>2</v>
       </c>
       <c r="J107" s="6">
-        <f>IF(I107&gt;0, 1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="K107" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B108" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>40</v>
@@ -3869,23 +3878,60 @@
         <v>6000</v>
       </c>
       <c r="F108" s="7">
-        <f>LOG(E108)</f>
+        <f t="shared" si="4"/>
         <v>3.7781512503836434</v>
       </c>
       <c r="G108" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H108">
+        <v>12</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" s="6">
+        <v>23</v>
+      </c>
+      <c r="B109" s="6">
+        <v>0</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>40</v>
+      </c>
+      <c r="E109" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F109" s="7">
+        <f t="shared" si="4"/>
+        <v>3.7781512503836434</v>
+      </c>
+      <c r="G109" s="6">
+        <v>1</v>
+      </c>
+      <c r="H109">
         <v>6</v>
       </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" s="6">
-        <f>IF(I108&gt;0, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K108" s="6">
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="6">
         <v>0</v>
       </c>
     </row>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6FA36A-9B6C-4D80-A663-5A9D17709F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F5C9B-9BCA-41F4-AFA7-D19D47FBB5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:AG109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,7 +693,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3">
         <v>9</v>
